--- a/ComplexSystems/Results/ResOptWeightsk1inst1.xlsx
+++ b/ComplexSystems/Results/ResOptWeightsk1inst1.xlsx
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,6 +455,59 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>0.9</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+      <c r="F2">
+        <v>0.2</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>0.9352</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>23.34694419999141</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.001620000000000676</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>0.5321194999851286</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
